--- a/src/Input_Files/province_names/hre_provinces.xlsx
+++ b/src/Input_Files/province_names/hre_provinces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\province_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA2CDE-4F7A-4DDC-B366-F87BCFA09DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2561F6C-9747-45B2-9C09-8B034545E34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="750" windowWidth="21600" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="provinces" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1501">
   <si>
     <t>RGB</t>
   </si>
@@ -3403,9 +3403,6 @@
     <t>ingolstadt</t>
   </si>
   <si>
-    <t>eichstätt</t>
-  </si>
-  <si>
     <t>ellingen</t>
   </si>
   <si>
@@ -3811,20 +3808,744 @@
     <t>(233, 250, 1)</t>
   </si>
   <si>
+    <t>(175, 182, 50)</t>
+  </si>
+  <si>
+    <t>henneberg</t>
+  </si>
+  <si>
+    <t>Henneberg</t>
+  </si>
+  <si>
+    <t>(202, 164, 1)</t>
+  </si>
+  <si>
+    <t>thuringen</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>wartburg</t>
+  </si>
+  <si>
+    <t>Wartburg</t>
+  </si>
+  <si>
+    <t>(142, 171, 7)</t>
+  </si>
+  <si>
+    <t>ilmenau</t>
+  </si>
+  <si>
+    <t>Ilmenau</t>
+  </si>
+  <si>
+    <t>(133, 249, 32)</t>
+  </si>
+  <si>
+    <t>schwarzburg</t>
+  </si>
+  <si>
+    <t>Schwarzburg</t>
+  </si>
+  <si>
+    <t>(206, 242, 9)</t>
+  </si>
+  <si>
+    <t>muhlhausen</t>
+  </si>
+  <si>
+    <t>Mühlhausen</t>
+  </si>
+  <si>
+    <t>(61, 246, 0)</t>
+  </si>
+  <si>
+    <t>gotha</t>
+  </si>
+  <si>
+    <t>Gotha</t>
+  </si>
+  <si>
+    <t>(137, 223, 36)</t>
+  </si>
+  <si>
+    <t>erfurt</t>
+  </si>
+  <si>
+    <t>Erfurt</t>
+  </si>
+  <si>
+    <t>(189, 164, 2)</t>
+  </si>
+  <si>
+    <t>weimar</t>
+  </si>
+  <si>
+    <t>Weimar</t>
+  </si>
+  <si>
+    <t>(194, 196, 71)</t>
+  </si>
+  <si>
+    <t>beichlingen</t>
+  </si>
+  <si>
+    <t>Beichlingen</t>
+  </si>
+  <si>
+    <t>schloss_beichlingen</t>
+  </si>
+  <si>
+    <t>Schloss Beichlingen</t>
+  </si>
+  <si>
+    <t>(186, 73, 11)</t>
+  </si>
+  <si>
+    <t>nordhausen</t>
+  </si>
+  <si>
+    <t>Nordhausen</t>
+  </si>
+  <si>
+    <t>(201, 90, 24)</t>
+  </si>
+  <si>
+    <t>jena</t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>(227, 130, 39)</t>
+  </si>
+  <si>
+    <t>gera</t>
+  </si>
+  <si>
+    <t>Gera</t>
+  </si>
+  <si>
+    <t>(111, 173, 74)</t>
+  </si>
+  <si>
+    <t>altenburg</t>
+  </si>
+  <si>
+    <t>Altenburg</t>
+  </si>
+  <si>
+    <t>(90, 81, 38)</t>
+  </si>
+  <si>
+    <t>plauen</t>
+  </si>
+  <si>
+    <t>Plauen</t>
+  </si>
+  <si>
+    <t>(192, 187, 25)</t>
+  </si>
+  <si>
+    <t>zwickau</t>
+  </si>
+  <si>
+    <t>Zwickau</t>
+  </si>
+  <si>
+    <t>(51, 215, 2)</t>
+  </si>
+  <si>
+    <t>chemnitz</t>
+  </si>
+  <si>
+    <t>Chemnitz</t>
+  </si>
+  <si>
+    <t>(131, 88, 13)</t>
+  </si>
+  <si>
+    <t>freiberg</t>
+  </si>
+  <si>
+    <t>Freiberg</t>
+  </si>
+  <si>
+    <t>(182, 218, 7)</t>
+  </si>
+  <si>
+    <t>dresden</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>(65, 204, 58)</t>
+  </si>
+  <si>
+    <t>meissen</t>
+  </si>
+  <si>
+    <t>Meißen</t>
+  </si>
+  <si>
+    <t>(134, 52, 52)</t>
+  </si>
+  <si>
+    <t>kamenz</t>
+  </si>
+  <si>
+    <t>Kamenz</t>
+  </si>
+  <si>
+    <t>(136, 124, 10)</t>
+  </si>
+  <si>
+    <t>gorlitz</t>
+  </si>
+  <si>
+    <t>Görlitz</t>
+  </si>
+  <si>
+    <t>(71, 211, 67)</t>
+  </si>
+  <si>
+    <t>zittau</t>
+  </si>
+  <si>
+    <t>Zittau</t>
+  </si>
+  <si>
+    <t>(73, 77, 72)</t>
+  </si>
+  <si>
+    <t>grimma</t>
+  </si>
+  <si>
+    <t>Grimma</t>
+  </si>
+  <si>
+    <t>(96, 73, 49)</t>
+  </si>
+  <si>
+    <t>torgau</t>
+  </si>
+  <si>
+    <t>Torgau</t>
+  </si>
+  <si>
+    <t>(246, 121, 68)</t>
+  </si>
+  <si>
+    <t>leipzig</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>(94, 146, 56)</t>
+  </si>
+  <si>
+    <t>sachsen</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>wittenberg</t>
+  </si>
+  <si>
+    <t>Wittenberg</t>
+  </si>
+  <si>
+    <t>(124, 244, 68)</t>
+  </si>
+  <si>
+    <t>anhalt</t>
+  </si>
+  <si>
+    <t>Anhalt</t>
+  </si>
+  <si>
+    <t>zerbst</t>
+  </si>
+  <si>
+    <t>Zerbst</t>
+  </si>
+  <si>
+    <t>(205, 73, 70)</t>
+  </si>
+  <si>
+    <t>bernburg</t>
+  </si>
+  <si>
+    <t>Bernburg</t>
+  </si>
+  <si>
+    <t>(133, 126, 24)</t>
+  </si>
+  <si>
+    <t>halle</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>(62, 244, 74)</t>
+  </si>
+  <si>
+    <t>merseburg</t>
+  </si>
+  <si>
+    <t>Merseburg</t>
+  </si>
+  <si>
+    <t>(169, 182, 53)</t>
+  </si>
+  <si>
+    <t>naumburg</t>
+  </si>
+  <si>
+    <t>Naumburg</t>
+  </si>
+  <si>
+    <t>burg_schonburg</t>
+  </si>
+  <si>
+    <t>Burg Schönburg</t>
+  </si>
+  <si>
+    <t>(254, 88, 33)</t>
+  </si>
+  <si>
+    <t>querfurt</t>
+  </si>
+  <si>
+    <t>Querfurt</t>
+  </si>
+  <si>
+    <t>(144, 144, 16)</t>
+  </si>
+  <si>
+    <t>mansfeld</t>
+  </si>
+  <si>
+    <t>Mansfeld</t>
+  </si>
+  <si>
+    <t>(59, 202, 45)</t>
+  </si>
+  <si>
+    <t>quedlinburg</t>
+  </si>
+  <si>
+    <t>Quedlinburg</t>
+  </si>
+  <si>
+    <t>(68, 74, 67)</t>
+  </si>
+  <si>
+    <t>halberstadt</t>
+  </si>
+  <si>
+    <t>Halberstadt</t>
+  </si>
+  <si>
+    <t>(50, 182, 48)</t>
+  </si>
+  <si>
+    <t>magdeburg</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>(250, 154, 17)</t>
+  </si>
+  <si>
+    <t>haldensleben</t>
+  </si>
+  <si>
+    <t>Haldensleben</t>
+  </si>
+  <si>
+    <t>(65, 215, 21)</t>
+  </si>
+  <si>
+    <t>burg_bei_magdeburg</t>
+  </si>
+  <si>
+    <t>Burg bei Magdeburg</t>
+  </si>
+  <si>
+    <t>(55, 72, 3)</t>
+  </si>
+  <si>
+    <t>stendal</t>
+  </si>
+  <si>
+    <t>Stendal</t>
+  </si>
+  <si>
+    <t>(185, 140, 65)</t>
+  </si>
+  <si>
+    <t>havelberg</t>
+  </si>
+  <si>
+    <t>Havelberg</t>
+  </si>
+  <si>
+    <t>(226, 143, 64)</t>
+  </si>
+  <si>
+    <t>gardelegen</t>
+  </si>
+  <si>
+    <t>Gardelegen</t>
+  </si>
+  <si>
+    <t>burg_gardelegen</t>
+  </si>
+  <si>
+    <t>Burg Gardelegen</t>
+  </si>
+  <si>
+    <t>(166, 104, 4)</t>
+  </si>
+  <si>
+    <t>salzwedel</t>
+  </si>
+  <si>
+    <t>Salzwedel</t>
+  </si>
+  <si>
+    <t>(183, 165, 21)</t>
+  </si>
+  <si>
+    <t>gleichenstein</t>
+  </si>
+  <si>
+    <t>Gleichenstein</t>
+  </si>
+  <si>
+    <t>burg_gleichenstein</t>
+  </si>
+  <si>
+    <t>Burg Gleichenstein</t>
+  </si>
+  <si>
+    <t>(192, 87, 62)</t>
+  </si>
+  <si>
+    <t>reuss</t>
+  </si>
+  <si>
+    <t>Reuß</t>
+  </si>
+  <si>
+    <t>weida</t>
+  </si>
+  <si>
+    <t>Weida</t>
+  </si>
+  <si>
+    <t>(230, 179, 62)</t>
+  </si>
+  <si>
+    <t>cottbus</t>
+  </si>
+  <si>
+    <t>Cottbus</t>
+  </si>
+  <si>
+    <t>(179, 93, 73)</t>
+  </si>
+  <si>
+    <t>guben</t>
+  </si>
+  <si>
+    <t>Guben</t>
+  </si>
+  <si>
+    <t>(57, 97, 49)</t>
+  </si>
+  <si>
+    <t>niederlausitz</t>
+  </si>
+  <si>
+    <t>Niederlausitz</t>
+  </si>
+  <si>
+    <t>lubben</t>
+  </si>
+  <si>
+    <t>Lübben</t>
+  </si>
+  <si>
+    <t>(76, 229, 70)</t>
+  </si>
+  <si>
+    <t>brehna</t>
+  </si>
+  <si>
+    <t>Brehna</t>
+  </si>
+  <si>
+    <t>(212, 211, 66)</t>
+  </si>
+  <si>
+    <t>baruth</t>
+  </si>
+  <si>
+    <t>Baruth</t>
+  </si>
+  <si>
+    <t>(250, 59, 8)</t>
+  </si>
+  <si>
+    <t>juterbog</t>
+  </si>
+  <si>
+    <t>Jüterbog</t>
+  </si>
+  <si>
+    <t>(145, 216, 25)</t>
+  </si>
+  <si>
+    <t>trebbin</t>
+  </si>
+  <si>
+    <t>Trebbin</t>
+  </si>
+  <si>
+    <t>(51, 164, 40)</t>
+  </si>
+  <si>
+    <t>frankfurt_an_der_oder</t>
+  </si>
+  <si>
+    <t>Frankfurt an der Oder</t>
+  </si>
+  <si>
+    <t>(77, 251, 59)</t>
+  </si>
+  <si>
+    <t>storkow</t>
+  </si>
+  <si>
+    <t>Storkow</t>
+  </si>
+  <si>
+    <t>(95, 109, 73)</t>
+  </si>
+  <si>
+    <t>furstenwalde</t>
+  </si>
+  <si>
+    <t>Fürstenwalde</t>
+  </si>
+  <si>
+    <t>(199, 162, 31)</t>
+  </si>
+  <si>
+    <t>strausberg</t>
+  </si>
+  <si>
+    <t>Strausberg</t>
+  </si>
+  <si>
+    <t>(122, 136, 0)</t>
+  </si>
+  <si>
+    <t>brandenburg</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>berlin</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>(106, 156, 65)</t>
+  </si>
+  <si>
+    <t>potsdam</t>
+  </si>
+  <si>
+    <t>Potsdam</t>
+  </si>
+  <si>
+    <t>(121, 186, 40)</t>
+  </si>
+  <si>
+    <t>brandenburg_an_der_havel</t>
+  </si>
+  <si>
+    <t>Brandenburg an der Havel</t>
+  </si>
+  <si>
+    <t>(252, 151, 58)</t>
+  </si>
+  <si>
+    <t>ziesar</t>
+  </si>
+  <si>
+    <t>Ziesar</t>
+  </si>
+  <si>
+    <t>(228, 245, 1)</t>
+  </si>
+  <si>
+    <t>rathenow</t>
+  </si>
+  <si>
+    <t>Rathenow</t>
+  </si>
+  <si>
+    <t>(244, 201, 66)</t>
+  </si>
+  <si>
+    <t>prignitz</t>
+  </si>
+  <si>
+    <t>Prignitz</t>
+  </si>
+  <si>
+    <t>perleberg</t>
+  </si>
+  <si>
+    <t>Perleberg</t>
+  </si>
+  <si>
+    <t>(60, 148, 39)</t>
+  </si>
+  <si>
+    <t>kyritz</t>
+  </si>
+  <si>
+    <t>Kyritz</t>
+  </si>
+  <si>
+    <t>(231, 53, 38)</t>
+  </si>
+  <si>
+    <t>ruppin</t>
+  </si>
+  <si>
+    <t>Ruppin</t>
+  </si>
+  <si>
+    <t>neuruppin</t>
+  </si>
+  <si>
+    <t>Neuruppin</t>
+  </si>
+  <si>
+    <t>(131, 248, 54)</t>
+  </si>
+  <si>
+    <t>botzow</t>
+  </si>
+  <si>
+    <t>Bötzow</t>
+  </si>
+  <si>
+    <t>(234, 242, 46)</t>
+  </si>
+  <si>
+    <t>chorin</t>
+  </si>
+  <si>
+    <t>Chorin</t>
+  </si>
+  <si>
+    <t>(51, 207, 64)</t>
+  </si>
+  <si>
+    <t>templin</t>
+  </si>
+  <si>
+    <t>Templin</t>
+  </si>
+  <si>
+    <t>(163, 211, 35)</t>
+  </si>
+  <si>
+    <t>uckermark</t>
+  </si>
+  <si>
+    <t>Uckermark</t>
+  </si>
+  <si>
+    <t>prenzlau</t>
+  </si>
+  <si>
+    <t>Prenzlau</t>
+  </si>
+  <si>
+    <t>(162, 207, 3)</t>
+  </si>
+  <si>
+    <t>friesack</t>
+  </si>
+  <si>
+    <t>Friesack</t>
+  </si>
+  <si>
+    <t>(157, 122, 67)</t>
+  </si>
+  <si>
+    <t>lebus</t>
+  </si>
+  <si>
+    <t>Lebus</t>
+  </si>
+  <si>
+    <t>(197, 177, 20)</t>
+  </si>
+  <si>
+    <t>senftenberg</t>
+  </si>
+  <si>
+    <t>Senftenberg</t>
+  </si>
+  <si>
     <t>davos</t>
   </si>
   <si>
     <t>Davos</t>
+  </si>
+  <si>
+    <t>eichstatt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3864,15 +4585,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3880,7 +4613,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4595,10 +5428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F388"/>
+  <dimension ref="A1:F1746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,22 +5444,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4745,10 +5578,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>1263</v>
+        <v>1498</v>
       </c>
       <c r="C9" t="s">
-        <v>1264</v>
+        <v>1499</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -5672,13 +6505,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B69" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C69" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
@@ -5687,19 +6520,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E70" t="s">
         <v>1254</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1255</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -5707,13 +6540,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B71" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C71" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
@@ -5722,13 +6555,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B72" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C72" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
@@ -8713,7 +9546,7 @@
         <v>864</v>
       </c>
       <c r="B274" t="s">
-        <v>1127</v>
+        <v>1500</v>
       </c>
       <c r="C274" t="s">
         <v>865</v>
@@ -8728,7 +9561,7 @@
         <v>866</v>
       </c>
       <c r="B275" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C275" t="s">
         <v>867</v>
@@ -8743,13 +9576,13 @@
         <v>868</v>
       </c>
       <c r="B276" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C276" t="s">
         <v>869</v>
       </c>
       <c r="D276" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E276" t="s">
         <v>870</v>
@@ -8763,7 +9596,7 @@
         <v>871</v>
       </c>
       <c r="B277" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C277" t="s">
         <v>872</v>
@@ -8778,7 +9611,7 @@
         <v>873</v>
       </c>
       <c r="B278" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C278" t="s">
         <v>874</v>
@@ -8793,7 +9626,7 @@
         <v>875</v>
       </c>
       <c r="B279" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C279" t="s">
         <v>876</v>
@@ -8808,7 +9641,7 @@
         <v>877</v>
       </c>
       <c r="B280" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C280" t="s">
         <v>878</v>
@@ -8823,7 +9656,7 @@
         <v>879</v>
       </c>
       <c r="B281" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C281" t="s">
         <v>880</v>
@@ -8838,7 +9671,7 @@
         <v>881</v>
       </c>
       <c r="B282" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C282" t="s">
         <v>882</v>
@@ -8853,7 +9686,7 @@
         <v>883</v>
       </c>
       <c r="B283" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C283" t="s">
         <v>884</v>
@@ -8868,7 +9701,7 @@
         <v>885</v>
       </c>
       <c r="B284" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C284" t="s">
         <v>886</v>
@@ -8883,7 +9716,7 @@
         <v>887</v>
       </c>
       <c r="B285" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C285" t="s">
         <v>888</v>
@@ -8898,7 +9731,7 @@
         <v>889</v>
       </c>
       <c r="B286" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C286" t="s">
         <v>890</v>
@@ -8913,7 +9746,7 @@
         <v>891</v>
       </c>
       <c r="B287" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C287" t="s">
         <v>892</v>
@@ -8928,7 +9761,7 @@
         <v>893</v>
       </c>
       <c r="B288" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C288" t="s">
         <v>894</v>
@@ -8943,7 +9776,7 @@
         <v>895</v>
       </c>
       <c r="B289" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C289" t="s">
         <v>896</v>
@@ -8958,7 +9791,7 @@
         <v>897</v>
       </c>
       <c r="B290" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C290" t="s">
         <v>898</v>
@@ -8973,7 +9806,7 @@
         <v>899</v>
       </c>
       <c r="B291" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C291" t="s">
         <v>900</v>
@@ -8988,7 +9821,7 @@
         <v>901</v>
       </c>
       <c r="B292" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C292" t="s">
         <v>902</v>
@@ -9003,7 +9836,7 @@
         <v>903</v>
       </c>
       <c r="B293" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C293" t="s">
         <v>904</v>
@@ -9018,7 +9851,7 @@
         <v>905</v>
       </c>
       <c r="B294" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C294" t="s">
         <v>906</v>
@@ -9033,7 +9866,7 @@
         <v>907</v>
       </c>
       <c r="B295" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C295" t="s">
         <v>908</v>
@@ -9048,7 +9881,7 @@
         <v>909</v>
       </c>
       <c r="B296" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C296" t="s">
         <v>910</v>
@@ -9063,13 +9896,13 @@
         <v>911</v>
       </c>
       <c r="B297" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C297" t="s">
         <v>912</v>
       </c>
       <c r="D297" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E297" t="s">
         <v>913</v>
@@ -9083,7 +9916,7 @@
         <v>914</v>
       </c>
       <c r="B298" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C298" t="s">
         <v>915</v>
@@ -9098,7 +9931,7 @@
         <v>916</v>
       </c>
       <c r="B299" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C299" t="s">
         <v>917</v>
@@ -9113,7 +9946,7 @@
         <v>918</v>
       </c>
       <c r="B300" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C300" t="s">
         <v>919</v>
@@ -9128,7 +9961,7 @@
         <v>920</v>
       </c>
       <c r="B301" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C301" t="s">
         <v>921</v>
@@ -9143,7 +9976,7 @@
         <v>922</v>
       </c>
       <c r="B302" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C302" t="s">
         <v>923</v>
@@ -9158,7 +9991,7 @@
         <v>924</v>
       </c>
       <c r="B303" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C303" t="s">
         <v>925</v>
@@ -9173,7 +10006,7 @@
         <v>926</v>
       </c>
       <c r="B304" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C304" t="s">
         <v>927</v>
@@ -9188,7 +10021,7 @@
         <v>928</v>
       </c>
       <c r="B305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C305" t="s">
         <v>929</v>
@@ -9203,7 +10036,7 @@
         <v>930</v>
       </c>
       <c r="B306" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C306" t="s">
         <v>931</v>
@@ -9218,7 +10051,7 @@
         <v>932</v>
       </c>
       <c r="B307" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C307" t="s">
         <v>933</v>
@@ -9233,7 +10066,7 @@
         <v>934</v>
       </c>
       <c r="B308" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C308" t="s">
         <v>935</v>
@@ -9248,7 +10081,7 @@
         <v>936</v>
       </c>
       <c r="B309" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C309" t="s">
         <v>937</v>
@@ -9263,7 +10096,7 @@
         <v>938</v>
       </c>
       <c r="B310" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C310" t="s">
         <v>939</v>
@@ -9278,7 +10111,7 @@
         <v>940</v>
       </c>
       <c r="B311" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C311" t="s">
         <v>941</v>
@@ -9293,7 +10126,7 @@
         <v>942</v>
       </c>
       <c r="B312" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C312" t="s">
         <v>943</v>
@@ -9308,7 +10141,7 @@
         <v>944</v>
       </c>
       <c r="B313" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C313" t="s">
         <v>945</v>
@@ -9323,7 +10156,7 @@
         <v>946</v>
       </c>
       <c r="B314" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C314" t="s">
         <v>947</v>
@@ -9338,7 +10171,7 @@
         <v>948</v>
       </c>
       <c r="B315" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C315" t="s">
         <v>949</v>
@@ -9353,7 +10186,7 @@
         <v>950</v>
       </c>
       <c r="B316" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C316" t="s">
         <v>951</v>
@@ -9368,7 +10201,7 @@
         <v>952</v>
       </c>
       <c r="B317" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C317" t="s">
         <v>953</v>
@@ -9383,7 +10216,7 @@
         <v>954</v>
       </c>
       <c r="B318" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C318" t="s">
         <v>955</v>
@@ -9398,7 +10231,7 @@
         <v>956</v>
       </c>
       <c r="B319" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C319" t="s">
         <v>957</v>
@@ -9413,7 +10246,7 @@
         <v>958</v>
       </c>
       <c r="B320" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C320" t="s">
         <v>959</v>
@@ -9428,7 +10261,7 @@
         <v>960</v>
       </c>
       <c r="B321" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C321" t="s">
         <v>961</v>
@@ -9443,7 +10276,7 @@
         <v>962</v>
       </c>
       <c r="B322" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C322" t="s">
         <v>963</v>
@@ -9458,7 +10291,7 @@
         <v>964</v>
       </c>
       <c r="B323" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C323" t="s">
         <v>965</v>
@@ -9473,7 +10306,7 @@
         <v>966</v>
       </c>
       <c r="B324" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C324" t="s">
         <v>967</v>
@@ -9488,7 +10321,7 @@
         <v>968</v>
       </c>
       <c r="B325" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C325" t="s">
         <v>969</v>
@@ -9503,7 +10336,7 @@
         <v>970</v>
       </c>
       <c r="B326" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C326" t="s">
         <v>971</v>
@@ -9518,7 +10351,7 @@
         <v>972</v>
       </c>
       <c r="B327" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C327" t="s">
         <v>973</v>
@@ -9533,7 +10366,7 @@
         <v>974</v>
       </c>
       <c r="B328" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C328" t="s">
         <v>975</v>
@@ -9548,7 +10381,7 @@
         <v>976</v>
       </c>
       <c r="B329" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C329" t="s">
         <v>977</v>
@@ -9563,7 +10396,7 @@
         <v>978</v>
       </c>
       <c r="B330" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C330" t="s">
         <v>979</v>
@@ -9578,7 +10411,7 @@
         <v>980</v>
       </c>
       <c r="B331" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C331" t="s">
         <v>981</v>
@@ -9593,7 +10426,7 @@
         <v>982</v>
       </c>
       <c r="B332" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C332" t="s">
         <v>983</v>
@@ -9608,7 +10441,7 @@
         <v>984</v>
       </c>
       <c r="B333" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C333" t="s">
         <v>985</v>
@@ -9623,7 +10456,7 @@
         <v>986</v>
       </c>
       <c r="B334" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C334" t="s">
         <v>987</v>
@@ -9638,7 +10471,7 @@
         <v>988</v>
       </c>
       <c r="B335" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C335" t="s">
         <v>989</v>
@@ -9653,13 +10486,13 @@
         <v>990</v>
       </c>
       <c r="B336" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C336" t="s">
         <v>991</v>
       </c>
       <c r="D336" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E336" t="s">
         <v>992</v>
@@ -9673,7 +10506,7 @@
         <v>993</v>
       </c>
       <c r="B337" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C337" t="s">
         <v>994</v>
@@ -9688,7 +10521,7 @@
         <v>995</v>
       </c>
       <c r="B338" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C338" t="s">
         <v>996</v>
@@ -9703,7 +10536,7 @@
         <v>997</v>
       </c>
       <c r="B339" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C339" t="s">
         <v>998</v>
@@ -9718,7 +10551,7 @@
         <v>999</v>
       </c>
       <c r="B340" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C340" t="s">
         <v>1000</v>
@@ -9733,7 +10566,7 @@
         <v>1001</v>
       </c>
       <c r="B341" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C341" t="s">
         <v>1002</v>
@@ -9748,7 +10581,7 @@
         <v>1003</v>
       </c>
       <c r="B342" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C342" t="s">
         <v>1004</v>
@@ -9763,7 +10596,7 @@
         <v>1005</v>
       </c>
       <c r="B343" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C343" t="s">
         <v>1006</v>
@@ -9778,7 +10611,7 @@
         <v>1007</v>
       </c>
       <c r="B344" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C344" t="s">
         <v>1008</v>
@@ -9793,7 +10626,7 @@
         <v>1009</v>
       </c>
       <c r="B345" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C345" t="s">
         <v>1010</v>
@@ -9808,7 +10641,7 @@
         <v>1011</v>
       </c>
       <c r="B346" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C346" t="s">
         <v>1012</v>
@@ -9823,7 +10656,7 @@
         <v>1013</v>
       </c>
       <c r="B347" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C347" t="s">
         <v>1014</v>
@@ -9838,7 +10671,7 @@
         <v>1015</v>
       </c>
       <c r="B348" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C348" t="s">
         <v>1016</v>
@@ -9853,7 +10686,7 @@
         <v>1017</v>
       </c>
       <c r="B349" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C349" t="s">
         <v>1018</v>
@@ -9868,7 +10701,7 @@
         <v>1019</v>
       </c>
       <c r="B350" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C350" t="s">
         <v>1020</v>
@@ -9883,7 +10716,7 @@
         <v>1021</v>
       </c>
       <c r="B351" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C351" t="s">
         <v>1022</v>
@@ -9898,7 +10731,7 @@
         <v>1023</v>
       </c>
       <c r="B352" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C352" t="s">
         <v>1024</v>
@@ -9913,7 +10746,7 @@
         <v>1025</v>
       </c>
       <c r="B353" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C353" t="s">
         <v>1026</v>
@@ -9928,7 +10761,7 @@
         <v>1027</v>
       </c>
       <c r="B354" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C354" t="s">
         <v>1028</v>
@@ -9943,7 +10776,7 @@
         <v>1029</v>
       </c>
       <c r="B355" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C355" t="s">
         <v>1030</v>
@@ -9958,13 +10791,13 @@
         <v>1031</v>
       </c>
       <c r="B356" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C356" t="s">
         <v>1032</v>
       </c>
       <c r="D356" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E356" t="s">
         <v>1033</v>
@@ -9978,13 +10811,13 @@
         <v>1034</v>
       </c>
       <c r="B357" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C357" t="s">
         <v>1035</v>
       </c>
       <c r="D357" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E357" t="s">
         <v>1036</v>
@@ -9998,7 +10831,7 @@
         <v>1037</v>
       </c>
       <c r="B358" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C358" t="s">
         <v>1038</v>
@@ -10013,7 +10846,7 @@
         <v>1039</v>
       </c>
       <c r="B359" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C359" t="s">
         <v>1040</v>
@@ -10028,7 +10861,7 @@
         <v>1041</v>
       </c>
       <c r="B360" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C360" t="s">
         <v>1042</v>
@@ -10043,13 +10876,13 @@
         <v>1043</v>
       </c>
       <c r="B361" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C361" t="s">
         <v>1044</v>
       </c>
       <c r="D361" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E361" t="s">
         <v>1045</v>
@@ -10063,7 +10896,7 @@
         <v>1046</v>
       </c>
       <c r="B362" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C362" t="s">
         <v>1047</v>
@@ -10078,13 +10911,13 @@
         <v>1048</v>
       </c>
       <c r="B363" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C363" t="s">
         <v>1049</v>
       </c>
       <c r="D363" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E363" t="s">
         <v>1050</v>
@@ -10098,7 +10931,7 @@
         <v>1051</v>
       </c>
       <c r="B364" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C364" t="s">
         <v>1052</v>
@@ -10113,7 +10946,7 @@
         <v>1053</v>
       </c>
       <c r="B365" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C365" t="s">
         <v>1054</v>
@@ -10128,7 +10961,7 @@
         <v>1055</v>
       </c>
       <c r="B366" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C366" t="s">
         <v>1056</v>
@@ -10143,7 +10976,7 @@
         <v>1057</v>
       </c>
       <c r="B367" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C367" t="s">
         <v>1058</v>
@@ -10158,7 +10991,7 @@
         <v>1059</v>
       </c>
       <c r="B368" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C368" t="s">
         <v>1060</v>
@@ -10173,7 +11006,7 @@
         <v>1061</v>
       </c>
       <c r="B369" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C369" t="s">
         <v>1062</v>
@@ -10188,7 +11021,7 @@
         <v>1063</v>
       </c>
       <c r="B370" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C370" t="s">
         <v>1064</v>
@@ -10203,7 +11036,7 @@
         <v>1065</v>
       </c>
       <c r="B371" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C371" t="s">
         <v>1066</v>
@@ -10218,7 +11051,7 @@
         <v>1067</v>
       </c>
       <c r="B372" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C372" t="s">
         <v>1068</v>
@@ -10233,7 +11066,7 @@
         <v>1069</v>
       </c>
       <c r="B373" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C373" t="s">
         <v>1070</v>
@@ -10248,7 +11081,7 @@
         <v>1071</v>
       </c>
       <c r="B374" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C374" t="s">
         <v>1072</v>
@@ -10263,7 +11096,7 @@
         <v>1073</v>
       </c>
       <c r="B375" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C375" t="s">
         <v>1074</v>
@@ -10278,7 +11111,7 @@
         <v>1075</v>
       </c>
       <c r="B376" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C376" t="s">
         <v>1076</v>
@@ -10293,7 +11126,7 @@
         <v>1077</v>
       </c>
       <c r="B377" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C377" t="s">
         <v>1078</v>
@@ -10308,7 +11141,7 @@
         <v>1079</v>
       </c>
       <c r="B378" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C378" t="s">
         <v>1080</v>
@@ -10323,7 +11156,7 @@
         <v>1081</v>
       </c>
       <c r="B379" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C379" t="s">
         <v>1082</v>
@@ -10338,7 +11171,7 @@
         <v>1083</v>
       </c>
       <c r="B380" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C380" t="s">
         <v>1084</v>
@@ -10353,7 +11186,7 @@
         <v>1085</v>
       </c>
       <c r="B381" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C381" t="s">
         <v>1086</v>
@@ -10368,7 +11201,7 @@
         <v>1087</v>
       </c>
       <c r="B382" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C382" t="s">
         <v>1088</v>
@@ -10383,7 +11216,7 @@
         <v>1089</v>
       </c>
       <c r="B383" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C383" t="s">
         <v>1090</v>
@@ -10398,7 +11231,7 @@
         <v>1091</v>
       </c>
       <c r="B384" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C384" t="s">
         <v>1092</v>
@@ -10413,7 +11246,7 @@
         <v>1093</v>
       </c>
       <c r="B385" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C385" t="s">
         <v>1094</v>
@@ -10428,7 +11261,7 @@
         <v>1095</v>
       </c>
       <c r="B386" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C386" t="s">
         <v>1096</v>
@@ -10443,7 +11276,7 @@
         <v>1097</v>
       </c>
       <c r="B387" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C387" t="s">
         <v>1098</v>
@@ -10458,7 +11291,7 @@
         <v>1099</v>
       </c>
       <c r="B388" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C388" t="s">
         <v>1100</v>
@@ -10468,120 +11301,5084 @@
         <v>6</v>
       </c>
     </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F389" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F390" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F391" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F392" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F393" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F394" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E395"/>
+      <c r="F395" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F396" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F397" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E399"/>
+      <c r="F399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E400"/>
+      <c r="F400" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F401" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F402" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F403" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F404" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F405" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F406" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F407" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E408"/>
+      <c r="F408" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F409" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F410" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F412" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F413" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F414" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F415" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F416" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F417" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F418" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F419" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F420" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F421" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F422" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F423" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F424" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F425" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F426" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F427" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F428" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F429" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F430" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F431" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F432" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F433" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E434"/>
+      <c r="F434" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F435" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F436" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F437" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F438" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E439"/>
+      <c r="F439" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F440" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E441"/>
+      <c r="F441" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F442" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E443"/>
+      <c r="F443" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F444" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F445" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F446" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F447" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F448" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F449" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F450" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F451" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E452"/>
+      <c r="F452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F453" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F454" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F455" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E456"/>
+      <c r="F456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E457"/>
+      <c r="F457" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E458"/>
+      <c r="F458" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D459" s="5"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D460" s="5"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D461" s="5"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D462" s="5"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D463" s="5"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D464" s="5"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="5"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D466" s="5"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="5"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D468" s="5"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D469" s="5"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D470" s="5"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="5"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D472" s="5"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D473" s="5"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D474" s="5"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D475" s="5"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D476" s="5"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="5"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D478" s="5"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D479" s="5"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D480" s="5"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="5"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D482" s="5"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D483" s="5"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D484" s="5"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D485" s="5"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D486" s="5"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D487" s="5"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D488" s="5"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D489" s="5"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D490" s="5"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D491" s="5"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D492" s="5"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D493" s="5"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D494" s="5"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D495" s="5"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D496" s="5"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D497" s="5"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D498" s="5"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D499" s="5"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D500" s="5"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D501" s="5"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D502" s="5"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D503" s="5"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D504" s="5"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D505" s="5"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D506" s="5"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D507" s="5"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D508" s="5"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D509" s="5"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D510" s="5"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D511" s="5"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D512" s="5"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D513" s="5"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D514" s="5"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D515" s="5"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D516" s="5"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D517" s="5"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D518" s="5"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D519" s="5"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D520" s="5"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D521" s="5"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D522" s="5"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D523" s="5"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D524" s="5"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D525" s="5"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D526" s="5"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D527" s="5"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D528" s="5"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D529" s="5"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D530" s="5"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D531" s="5"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D532" s="5"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D533" s="5"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D534" s="5"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D535" s="5"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D536" s="5"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D537" s="5"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D538" s="5"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D539" s="5"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D540" s="5"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D541" s="5"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D542" s="5"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D543" s="5"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D544" s="5"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D545" s="5"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D546" s="5"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D547" s="5"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D548" s="5"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D549" s="5"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D550" s="5"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D551" s="5"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D552" s="5"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D553" s="5"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D554" s="5"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D555" s="5"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D556" s="5"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D557" s="5"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D558" s="5"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D559" s="5"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D560" s="5"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D561" s="5"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D562" s="5"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D563" s="5"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D564" s="5"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D565" s="5"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D566" s="5"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D567" s="5"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D568" s="5"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D569" s="5"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D570" s="5"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D571" s="5"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D572" s="5"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D573" s="5"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D574" s="5"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D575" s="5"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D576" s="5"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D577" s="5"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D578" s="5"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D579" s="5"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D580" s="5"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D581" s="5"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D582" s="5"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D583" s="5"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D584" s="5"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D585" s="5"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D586" s="5"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D587" s="5"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D588" s="5"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D589" s="5"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D590" s="5"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D591" s="5"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D592" s="5"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D593" s="5"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D594" s="5"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D595" s="5"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D596" s="5"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D597" s="5"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D598" s="5"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D599" s="5"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D600" s="5"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D601" s="5"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D602" s="5"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D603" s="5"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D604" s="5"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D605" s="5"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D606" s="5"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D607" s="5"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D608" s="5"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D609" s="5"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D610" s="5"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D611" s="5"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D612" s="5"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D613" s="5"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D614" s="5"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D615" s="5"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D616" s="5"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D617" s="5"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D618" s="5"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D619" s="5"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D620" s="5"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D621" s="5"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D622" s="5"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D623" s="5"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D624" s="5"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D625" s="5"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D626" s="5"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D627" s="5"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D628" s="5"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D629" s="5"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D630" s="5"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D631" s="5"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D632" s="5"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D633" s="5"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D634" s="5"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D635" s="5"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D636" s="5"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D637" s="5"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D638" s="5"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D639" s="5"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D640" s="5"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D641" s="5"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D642" s="5"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D643" s="5"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D644" s="5"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D645" s="5"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D646" s="5"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D647" s="5"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D648" s="5"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D649" s="5"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D650" s="5"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D651" s="5"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D652" s="5"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D653" s="5"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D654" s="5"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D655" s="5"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D656" s="5"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D657" s="5"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D658" s="5"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D659" s="5"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D660" s="5"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D661" s="5"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D662" s="5"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D663" s="5"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D664" s="5"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D665" s="5"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D666" s="5"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D667" s="5"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D668" s="5"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D669" s="5"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D670" s="5"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D671" s="5"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D672" s="5"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D673" s="5"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D674" s="5"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D675" s="5"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D676" s="5"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D677" s="5"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D678" s="5"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D679" s="5"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D680" s="5"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D681" s="5"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D682" s="5"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D683" s="5"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D684" s="5"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D685" s="5"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D686" s="5"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D687" s="5"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D688" s="5"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D689" s="5"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D690" s="5"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D691" s="5"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D692" s="5"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D693" s="5"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D694" s="5"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D695" s="5"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D696" s="5"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D697" s="5"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D698" s="5"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D699" s="5"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D700" s="5"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D701" s="5"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D702" s="5"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D703" s="5"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D704" s="5"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D705" s="5"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D706" s="5"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D707" s="5"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D708" s="5"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D709" s="5"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D710" s="5"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D711" s="5"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D712" s="5"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D713" s="5"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D714" s="5"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D715" s="5"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D716" s="5"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D717" s="5"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D718" s="5"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D719" s="5"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D720" s="5"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D721" s="5"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D722" s="5"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D723" s="5"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D724" s="5"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D725" s="5"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D726" s="5"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D727" s="5"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D728" s="5"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D729" s="5"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D730" s="5"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D731" s="5"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D732" s="5"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D733" s="5"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D734" s="5"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D735" s="5"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D736" s="5"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D737" s="5"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D738" s="5"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D739" s="5"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D740" s="5"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D741" s="5"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D742" s="5"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D743" s="5"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D744" s="5"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D745" s="5"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D746" s="5"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D747" s="2"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D748" s="3"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D749" s="3"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D750" s="3"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D751" s="3"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D752" s="3"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D753" s="3"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D754" s="3"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D755" s="3"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D756" s="3"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D757" s="3"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D758" s="3"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D759" s="3"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D760" s="5"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D761" s="3"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D762" s="3"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D763" s="3"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D764" s="3"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D765" s="3"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D766" s="3"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D767" s="3"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D768" s="3"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D769" s="3"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D770" s="3"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D771" s="3"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D772" s="3"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D773" s="3"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D774" s="3"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D775" s="3"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D776" s="3"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D777" s="3"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D778" s="3"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D779" s="3"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D780" s="3"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D781" s="3"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D782" s="3"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D783" s="3"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D784" s="3"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D785" s="3"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D786" s="3"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D787" s="3"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D788" s="3"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D789" s="3"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D790" s="3"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D791" s="3"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D792" s="3"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D793" s="3"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D794" s="3"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D795" s="3"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D796" s="3"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D797" s="3"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D798" s="3"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D799" s="3"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D800" s="3"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D801" s="3"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D802" s="3"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D803" s="3"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D804" s="3"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D805" s="3"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D806" s="3"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D807" s="3"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D808" s="3"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D809" s="3"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D810" s="3"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D811" s="3"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D812" s="3"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D813" s="3"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D814" s="3"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D815" s="3"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D816" s="3"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D817" s="3"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D818" s="3"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D819" s="3"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D820" s="3"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D821" s="3"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D822" s="3"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D823" s="3"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D824" s="3"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D825" s="3"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D826" s="3"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D827" s="3"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D828" s="3"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D829" s="3"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D830" s="3"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D831" s="3"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D832" s="3"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D833" s="3"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D834" s="3"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D835" s="3"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D836" s="3"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D837" s="3"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D838" s="3"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D839" s="3"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D840" s="3"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D841" s="3"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D842" s="3"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D843" s="3"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D844" s="4"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D845" s="3"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D846" s="3"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D847" s="3"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D848" s="3"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D849" s="3"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D850" s="3"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D851" s="3"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D852" s="3"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D853" s="3"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D854" s="3"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D855" s="3"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D856" s="3"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D857" s="3"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D858" s="3"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D859" s="3"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D860" s="3"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D861" s="3"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D862" s="3"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D863" s="3"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D864" s="3"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D865" s="3"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D866" s="3"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D867" s="3"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D868" s="3"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D869" s="3"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D870" s="3"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D871" s="3"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D872" s="3"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D873" s="3"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D874" s="3"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D875" s="3"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D876" s="3"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D877" s="3"/>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D878" s="3"/>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D879" s="3"/>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D880" s="3"/>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D881" s="3"/>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D882" s="3"/>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D883" s="3"/>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D884" s="3"/>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D885" s="3"/>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D886" s="3"/>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D887" s="3"/>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D888" s="3"/>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D889" s="3"/>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D890" s="4"/>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D891" s="3"/>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D892" s="3"/>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D893" s="3"/>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D894" s="4"/>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D895" s="4"/>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D896" s="3"/>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D897" s="3"/>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D898" s="3"/>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D899" s="3"/>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D900" s="3"/>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D901" s="3"/>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D902" s="3"/>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D903" s="3"/>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D904" s="3"/>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D905" s="3"/>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D906" s="3"/>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D907" s="3"/>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D908" s="3"/>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D909" s="3"/>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D910" s="3"/>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D911" s="3"/>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D912" s="3"/>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D913" s="3"/>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D914" s="3"/>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D915" s="3"/>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D916" s="3"/>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D917" s="3"/>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D918" s="3"/>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D919" s="3"/>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D920" s="3"/>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D921" s="3"/>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D922" s="3"/>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D923" s="3"/>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D924" s="3"/>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D925" s="3"/>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D926" s="3"/>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D927" s="3"/>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D928" s="3"/>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D929" s="3"/>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D930" s="3"/>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D931" s="3"/>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D932" s="3"/>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D933" s="3"/>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D934" s="3"/>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D935" s="3"/>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D936" s="3"/>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D937" s="3"/>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D938" s="3"/>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D939" s="3"/>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D940" s="3"/>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D941" s="3"/>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D942" s="3"/>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D943" s="3"/>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D944" s="3"/>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D945" s="3"/>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D946" s="3"/>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D947" s="3"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D948" s="3"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D949" s="3"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D950" s="3"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D951" s="3"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D952" s="3"/>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D953" s="3"/>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D954" s="3"/>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D955" s="3"/>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D956" s="3"/>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D957" s="3"/>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D958" s="3"/>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D959" s="3"/>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D960" s="3"/>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D961" s="3"/>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D962" s="3"/>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D963" s="3"/>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D964" s="3"/>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D965" s="3"/>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D966" s="3"/>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D967" s="3"/>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D968" s="3"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D969" s="3"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D970" s="3"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D971" s="3"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D972" s="3"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D973" s="3"/>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D974" s="3"/>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D975" s="3"/>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D976" s="3"/>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D977" s="3"/>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D978" s="3"/>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D979" s="3"/>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D980" s="3"/>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D981" s="3"/>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D982" s="3"/>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D983" s="3"/>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D984" s="3"/>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D985" s="3"/>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D986" s="3"/>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D987" s="3"/>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D988" s="3"/>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D989" s="3"/>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D990" s="3"/>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D991" s="3"/>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D992" s="3"/>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D993" s="3"/>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D994" s="3"/>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D995" s="3"/>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D996" s="3"/>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D997" s="3"/>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D998" s="3"/>
+    </row>
+    <row r="999" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D999" s="3"/>
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1000" s="3"/>
+    </row>
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1001" s="3"/>
+    </row>
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1002" s="3"/>
+    </row>
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1007" s="3"/>
+    </row>
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1008" s="3"/>
+    </row>
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1009" s="3"/>
+    </row>
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1010" s="3"/>
+    </row>
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1011" s="3"/>
+    </row>
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1012" s="3"/>
+    </row>
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1013" s="3"/>
+    </row>
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1014" s="3"/>
+    </row>
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1015" s="3"/>
+    </row>
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1016" s="3"/>
+    </row>
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1017" s="3"/>
+    </row>
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1018" s="3"/>
+    </row>
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1019" s="3"/>
+    </row>
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1020" s="3"/>
+    </row>
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1021" s="3"/>
+    </row>
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1022" s="3"/>
+    </row>
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1023" s="3"/>
+    </row>
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1024" s="3"/>
+    </row>
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1025" s="3"/>
+    </row>
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1026" s="3"/>
+    </row>
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1027" s="3"/>
+    </row>
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1028" s="3"/>
+    </row>
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1029" s="3"/>
+    </row>
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1030" s="3"/>
+    </row>
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1031" s="3"/>
+    </row>
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1032" s="3"/>
+    </row>
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1033" s="3"/>
+    </row>
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1034" s="3"/>
+    </row>
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1035" s="3"/>
+    </row>
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1036" s="3"/>
+    </row>
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1037" s="3"/>
+    </row>
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1038" s="3"/>
+    </row>
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1039" s="3"/>
+    </row>
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1040" s="3"/>
+    </row>
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1041" s="3"/>
+    </row>
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1042" s="3"/>
+    </row>
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1043" s="3"/>
+    </row>
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1044" s="3"/>
+    </row>
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1045" s="3"/>
+    </row>
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1046" s="3"/>
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1047" s="3"/>
+    </row>
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048" s="3"/>
+    </row>
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1049" s="3"/>
+    </row>
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1050" s="3"/>
+    </row>
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1051" s="3"/>
+    </row>
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1052" s="3"/>
+    </row>
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1053" s="3"/>
+    </row>
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1054" s="3"/>
+    </row>
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1055" s="3"/>
+    </row>
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1056" s="3"/>
+    </row>
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1057" s="3"/>
+    </row>
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1058" s="3"/>
+    </row>
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1059" s="3"/>
+    </row>
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1060" s="3"/>
+    </row>
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1061" s="3"/>
+    </row>
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1062" s="3"/>
+    </row>
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1063" s="3"/>
+    </row>
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1064" s="3"/>
+    </row>
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1065" s="3"/>
+    </row>
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1066" s="3"/>
+    </row>
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1067" s="3"/>
+    </row>
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1068" s="3"/>
+    </row>
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1069" s="3"/>
+    </row>
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1070" s="3"/>
+    </row>
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1071" s="3"/>
+    </row>
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1072" s="3"/>
+    </row>
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1073" s="3"/>
+    </row>
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1074" s="3"/>
+    </row>
+    <row r="1075" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1075" s="3"/>
+    </row>
+    <row r="1076" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1076" s="3"/>
+    </row>
+    <row r="1077" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1077" s="3"/>
+    </row>
+    <row r="1078" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1078" s="3"/>
+    </row>
+    <row r="1079" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1079" s="3"/>
+    </row>
+    <row r="1080" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1080" s="3"/>
+    </row>
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1081" s="3"/>
+    </row>
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1082" s="3"/>
+    </row>
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1083" s="3"/>
+    </row>
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1084" s="3"/>
+    </row>
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1085" s="3"/>
+    </row>
+    <row r="1086" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1086" s="3"/>
+    </row>
+    <row r="1087" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1087" s="3"/>
+    </row>
+    <row r="1088" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1088" s="3"/>
+    </row>
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1089" s="3"/>
+    </row>
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1090" s="3"/>
+    </row>
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1091" s="3"/>
+    </row>
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1092" s="3"/>
+    </row>
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1093" s="3"/>
+    </row>
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1094" s="3"/>
+    </row>
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1095" s="3"/>
+    </row>
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1096" s="3"/>
+    </row>
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1097" s="3"/>
+    </row>
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1098" s="3"/>
+    </row>
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1099" s="3"/>
+    </row>
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1100" s="3"/>
+    </row>
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1101" s="3"/>
+    </row>
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1102" s="3"/>
+    </row>
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1103" s="3"/>
+    </row>
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1104" s="3"/>
+    </row>
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1105" s="3"/>
+    </row>
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1106" s="3"/>
+    </row>
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1107" s="3"/>
+    </row>
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1108" s="3"/>
+    </row>
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1109" s="3"/>
+    </row>
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1110" s="3"/>
+    </row>
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1111" s="3"/>
+    </row>
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1112" s="3"/>
+    </row>
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1113" s="3"/>
+    </row>
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1114" s="3"/>
+    </row>
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1115" s="3"/>
+    </row>
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1116" s="3"/>
+    </row>
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1117" s="3"/>
+    </row>
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1118" s="3"/>
+    </row>
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1119" s="3"/>
+    </row>
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1120" s="3"/>
+    </row>
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1121" s="3"/>
+    </row>
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1122" s="3"/>
+    </row>
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1123" s="3"/>
+    </row>
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1124" s="3"/>
+    </row>
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1125" s="3"/>
+    </row>
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1126" s="3"/>
+    </row>
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1127" s="3"/>
+    </row>
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1128" s="3"/>
+    </row>
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1129" s="3"/>
+    </row>
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1130" s="3"/>
+    </row>
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1131" s="3"/>
+    </row>
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1132" s="3"/>
+    </row>
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1133" s="3"/>
+    </row>
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1134" s="3"/>
+    </row>
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1135" s="3"/>
+    </row>
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1136" s="3"/>
+    </row>
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1137" s="3"/>
+    </row>
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1138" s="3"/>
+    </row>
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1139" s="3"/>
+    </row>
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1140" s="3"/>
+    </row>
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1141" s="3"/>
+    </row>
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1142" s="3"/>
+    </row>
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1143" s="3"/>
+    </row>
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1144" s="3"/>
+    </row>
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1145" s="3"/>
+    </row>
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1146" s="3"/>
+    </row>
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1147" s="3"/>
+    </row>
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1148" s="3"/>
+    </row>
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1149" s="3"/>
+    </row>
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1150" s="3"/>
+    </row>
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1151" s="3"/>
+    </row>
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1152" s="3"/>
+    </row>
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1153" s="3"/>
+    </row>
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1154" s="3"/>
+    </row>
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1155" s="3"/>
+    </row>
+    <row r="1156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1156" s="3"/>
+    </row>
+    <row r="1157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1157" s="3"/>
+    </row>
+    <row r="1158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1158" s="3"/>
+    </row>
+    <row r="1159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1159" s="3"/>
+    </row>
+    <row r="1160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1160" s="3"/>
+    </row>
+    <row r="1161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1161" s="3"/>
+    </row>
+    <row r="1162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1162" s="3"/>
+    </row>
+    <row r="1163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1163" s="3"/>
+    </row>
+    <row r="1164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1164" s="3"/>
+    </row>
+    <row r="1165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1165" s="3"/>
+    </row>
+    <row r="1166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1166" s="3"/>
+    </row>
+    <row r="1167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1167" s="3"/>
+    </row>
+    <row r="1168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1168" s="3"/>
+    </row>
+    <row r="1169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1169" s="3"/>
+    </row>
+    <row r="1170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1170" s="3"/>
+    </row>
+    <row r="1171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1171" s="3"/>
+    </row>
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1172" s="3"/>
+    </row>
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1173" s="3"/>
+    </row>
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1174" s="3"/>
+    </row>
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1175" s="3"/>
+    </row>
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1176" s="3"/>
+    </row>
+    <row r="1177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1177" s="3"/>
+    </row>
+    <row r="1178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1178" s="3"/>
+    </row>
+    <row r="1179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1179" s="3"/>
+    </row>
+    <row r="1180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1180" s="3"/>
+    </row>
+    <row r="1181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1181" s="3"/>
+    </row>
+    <row r="1182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1182" s="3"/>
+    </row>
+    <row r="1183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1183" s="3"/>
+    </row>
+    <row r="1184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1184" s="3"/>
+    </row>
+    <row r="1185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1185" s="3"/>
+    </row>
+    <row r="1186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1186" s="3"/>
+    </row>
+    <row r="1187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1187" s="3"/>
+    </row>
+    <row r="1188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1188" s="3"/>
+    </row>
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1189" s="3"/>
+    </row>
+    <row r="1190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1190" s="3"/>
+    </row>
+    <row r="1191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1191" s="3"/>
+    </row>
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1192" s="3"/>
+    </row>
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1193" s="3"/>
+    </row>
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1194" s="3"/>
+    </row>
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1195" s="3"/>
+    </row>
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1196" s="3"/>
+    </row>
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1197" s="3"/>
+    </row>
+    <row r="1198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1198" s="3"/>
+    </row>
+    <row r="1199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1199" s="3"/>
+    </row>
+    <row r="1200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1200" s="3"/>
+    </row>
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1201" s="3"/>
+    </row>
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1202" s="3"/>
+    </row>
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1203" s="3"/>
+    </row>
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1204" s="3"/>
+    </row>
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1205" s="3"/>
+    </row>
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1206" s="3"/>
+    </row>
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1207" s="3"/>
+    </row>
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1208" s="3"/>
+    </row>
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1209" s="3"/>
+    </row>
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1210" s="3"/>
+    </row>
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1211" s="3"/>
+    </row>
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1212" s="3"/>
+    </row>
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1213" s="3"/>
+    </row>
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1214" s="3"/>
+    </row>
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1215" s="3"/>
+    </row>
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1216" s="3"/>
+    </row>
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1217" s="3"/>
+    </row>
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1218" s="3"/>
+    </row>
+    <row r="1219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1219" s="3"/>
+    </row>
+    <row r="1220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1220" s="3"/>
+    </row>
+    <row r="1221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1221" s="3"/>
+    </row>
+    <row r="1222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1222" s="3"/>
+    </row>
+    <row r="1223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1223" s="3"/>
+    </row>
+    <row r="1224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1224" s="3"/>
+    </row>
+    <row r="1225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1225" s="3"/>
+    </row>
+    <row r="1226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1226" s="3"/>
+    </row>
+    <row r="1227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1227" s="3"/>
+    </row>
+    <row r="1228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1228" s="3"/>
+    </row>
+    <row r="1229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1229" s="3"/>
+    </row>
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1230" s="3"/>
+    </row>
+    <row r="1231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1231" s="3"/>
+    </row>
+    <row r="1232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1232" s="3"/>
+    </row>
+    <row r="1233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1233" s="3"/>
+    </row>
+    <row r="1234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1234" s="3"/>
+    </row>
+    <row r="1235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1235" s="3"/>
+    </row>
+    <row r="1236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1236" s="3"/>
+    </row>
+    <row r="1237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1237" s="3"/>
+    </row>
+    <row r="1238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1238" s="3"/>
+    </row>
+    <row r="1239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1239" s="3"/>
+    </row>
+    <row r="1240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1240" s="3"/>
+    </row>
+    <row r="1241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1241" s="3"/>
+    </row>
+    <row r="1242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1242" s="3"/>
+    </row>
+    <row r="1243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1243" s="3"/>
+    </row>
+    <row r="1244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1244" s="3"/>
+    </row>
+    <row r="1245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1245" s="3"/>
+    </row>
+    <row r="1246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1246" s="3"/>
+    </row>
+    <row r="1247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1247" s="3"/>
+    </row>
+    <row r="1248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1248" s="3"/>
+    </row>
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1249" s="3"/>
+    </row>
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1250" s="3"/>
+    </row>
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1251" s="3"/>
+    </row>
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1252" s="3"/>
+    </row>
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1253" s="3"/>
+    </row>
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1254" s="3"/>
+    </row>
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1255" s="3"/>
+    </row>
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1256" s="3"/>
+    </row>
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1257" s="3"/>
+    </row>
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1258" s="3"/>
+    </row>
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1259" s="3"/>
+    </row>
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1260" s="3"/>
+    </row>
+    <row r="1261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1261" s="3"/>
+    </row>
+    <row r="1262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1262" s="3"/>
+    </row>
+    <row r="1263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1263" s="3"/>
+    </row>
+    <row r="1264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1264" s="3"/>
+    </row>
+    <row r="1265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1265" s="3"/>
+    </row>
+    <row r="1266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1266" s="3"/>
+    </row>
+    <row r="1267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1267" s="3"/>
+    </row>
+    <row r="1268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1268" s="3"/>
+    </row>
+    <row r="1269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1269" s="3"/>
+    </row>
+    <row r="1270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1270" s="3"/>
+    </row>
+    <row r="1271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1271" s="3"/>
+    </row>
+    <row r="1272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1272" s="3"/>
+    </row>
+    <row r="1273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1273" s="3"/>
+    </row>
+    <row r="1274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1274" s="3"/>
+    </row>
+    <row r="1275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1275" s="3"/>
+    </row>
+    <row r="1276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1276" s="3"/>
+    </row>
+    <row r="1277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1277" s="3"/>
+    </row>
+    <row r="1278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1278" s="3"/>
+    </row>
+    <row r="1279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1279" s="3"/>
+    </row>
+    <row r="1280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1280" s="3"/>
+    </row>
+    <row r="1281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1281" s="3"/>
+    </row>
+    <row r="1282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1282" s="3"/>
+    </row>
+    <row r="1283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1283" s="3"/>
+    </row>
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1284" s="3"/>
+    </row>
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1285" s="3"/>
+    </row>
+    <row r="1286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1286" s="3"/>
+    </row>
+    <row r="1287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1287" s="3"/>
+    </row>
+    <row r="1288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1288" s="3"/>
+    </row>
+    <row r="1289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1289" s="3"/>
+    </row>
+    <row r="1290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1290" s="3"/>
+    </row>
+    <row r="1291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1291" s="3"/>
+    </row>
+    <row r="1292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1292" s="3"/>
+    </row>
+    <row r="1293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1293" s="3"/>
+    </row>
+    <row r="1294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1294" s="3"/>
+    </row>
+    <row r="1295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1295" s="3"/>
+    </row>
+    <row r="1296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1296" s="3"/>
+    </row>
+    <row r="1297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1297" s="3"/>
+    </row>
+    <row r="1298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1298" s="3"/>
+    </row>
+    <row r="1299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1299" s="3"/>
+    </row>
+    <row r="1300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1300" s="3"/>
+    </row>
+    <row r="1301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1301" s="3"/>
+    </row>
+    <row r="1302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1302" s="3"/>
+    </row>
+    <row r="1303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1303" s="3"/>
+    </row>
+    <row r="1304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1304" s="3"/>
+    </row>
+    <row r="1305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1305" s="3"/>
+    </row>
+    <row r="1306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1306" s="3"/>
+    </row>
+    <row r="1307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1307" s="3"/>
+    </row>
+    <row r="1308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1308" s="3"/>
+    </row>
+    <row r="1309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1309" s="3"/>
+    </row>
+    <row r="1310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1310" s="3"/>
+    </row>
+    <row r="1311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1311" s="3"/>
+    </row>
+    <row r="1312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1312" s="3"/>
+    </row>
+    <row r="1313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1313" s="3"/>
+    </row>
+    <row r="1314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1314" s="3"/>
+    </row>
+    <row r="1315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1315" s="3"/>
+    </row>
+    <row r="1316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1316" s="3"/>
+    </row>
+    <row r="1317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1317" s="3"/>
+    </row>
+    <row r="1318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1318" s="3"/>
+    </row>
+    <row r="1319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1319" s="3"/>
+    </row>
+    <row r="1320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1320" s="3"/>
+    </row>
+    <row r="1321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1321" s="3"/>
+    </row>
+    <row r="1322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1322" s="3"/>
+    </row>
+    <row r="1323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1323" s="3"/>
+    </row>
+    <row r="1324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1324" s="3"/>
+    </row>
+    <row r="1325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1325" s="3"/>
+    </row>
+    <row r="1326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1326" s="3"/>
+    </row>
+    <row r="1327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1327" s="3"/>
+    </row>
+    <row r="1328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1328" s="3"/>
+    </row>
+    <row r="1329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1329" s="3"/>
+    </row>
+    <row r="1330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1330" s="3"/>
+    </row>
+    <row r="1331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1331" s="3"/>
+    </row>
+    <row r="1332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1332" s="3"/>
+    </row>
+    <row r="1333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1333" s="3"/>
+    </row>
+    <row r="1334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1334" s="3"/>
+    </row>
+    <row r="1335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1335" s="3"/>
+    </row>
+    <row r="1336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1336" s="3"/>
+    </row>
+    <row r="1337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1337" s="3"/>
+    </row>
+    <row r="1338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1338" s="3"/>
+    </row>
+    <row r="1339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1339" s="3"/>
+    </row>
+    <row r="1340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1340" s="3"/>
+    </row>
+    <row r="1341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1341" s="3"/>
+    </row>
+    <row r="1342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1342" s="3"/>
+    </row>
+    <row r="1343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1343" s="3"/>
+    </row>
+    <row r="1344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1344" s="3"/>
+    </row>
+    <row r="1345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1345" s="3"/>
+    </row>
+    <row r="1346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1346" s="3"/>
+    </row>
+    <row r="1347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1347" s="3"/>
+    </row>
+    <row r="1348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1348" s="3"/>
+    </row>
+    <row r="1349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1349" s="3"/>
+    </row>
+    <row r="1350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1350" s="3"/>
+    </row>
+    <row r="1351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1351" s="3"/>
+    </row>
+    <row r="1352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1352" s="3"/>
+    </row>
+    <row r="1353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1353" s="3"/>
+    </row>
+    <row r="1354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1354" s="3"/>
+    </row>
+    <row r="1355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1355" s="3"/>
+    </row>
+    <row r="1356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1356" s="3"/>
+    </row>
+    <row r="1357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1357" s="3"/>
+    </row>
+    <row r="1358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1358" s="3"/>
+    </row>
+    <row r="1359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1359" s="3"/>
+    </row>
+    <row r="1360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1360" s="3"/>
+    </row>
+    <row r="1361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1361" s="3"/>
+    </row>
+    <row r="1362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1362" s="3"/>
+    </row>
+    <row r="1363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1363" s="3"/>
+    </row>
+    <row r="1364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1364" s="3"/>
+    </row>
+    <row r="1365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1365" s="3"/>
+    </row>
+    <row r="1366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1366" s="3"/>
+    </row>
+    <row r="1367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1367" s="3"/>
+    </row>
+    <row r="1368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1368" s="3"/>
+    </row>
+    <row r="1369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1369" s="3"/>
+    </row>
+    <row r="1370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1370" s="3"/>
+    </row>
+    <row r="1371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1371" s="3"/>
+    </row>
+    <row r="1372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1372" s="3"/>
+    </row>
+    <row r="1373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1373" s="3"/>
+    </row>
+    <row r="1374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1374" s="3"/>
+    </row>
+    <row r="1375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1375" s="3"/>
+    </row>
+    <row r="1376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1376" s="3"/>
+    </row>
+    <row r="1377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1377" s="3"/>
+    </row>
+    <row r="1378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1378" s="3"/>
+    </row>
+    <row r="1379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1379" s="3"/>
+    </row>
+    <row r="1380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1380" s="3"/>
+    </row>
+    <row r="1381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1381" s="3"/>
+    </row>
+    <row r="1382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1382" s="3"/>
+    </row>
+    <row r="1383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1383" s="3"/>
+    </row>
+    <row r="1384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1384" s="3"/>
+    </row>
+    <row r="1385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1385" s="3"/>
+    </row>
+    <row r="1386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1386" s="3"/>
+    </row>
+    <row r="1387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1387" s="3"/>
+    </row>
+    <row r="1388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1388" s="3"/>
+    </row>
+    <row r="1389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1389" s="3"/>
+    </row>
+    <row r="1390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1390" s="3"/>
+    </row>
+    <row r="1391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1391" s="3"/>
+    </row>
+    <row r="1392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1392" s="3"/>
+    </row>
+    <row r="1393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1393" s="3"/>
+    </row>
+    <row r="1394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1394" s="3"/>
+    </row>
+    <row r="1395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1395" s="3"/>
+    </row>
+    <row r="1396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1396" s="3"/>
+    </row>
+    <row r="1397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1397" s="3"/>
+    </row>
+    <row r="1398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1398" s="3"/>
+    </row>
+    <row r="1399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1399" s="3"/>
+    </row>
+    <row r="1400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1400" s="3"/>
+    </row>
+    <row r="1401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1401" s="3"/>
+    </row>
+    <row r="1402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1402" s="3"/>
+    </row>
+    <row r="1403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1403" s="3"/>
+    </row>
+    <row r="1404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1404" s="3"/>
+    </row>
+    <row r="1405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1405" s="3"/>
+    </row>
+    <row r="1406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1406" s="3"/>
+    </row>
+    <row r="1407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1407" s="3"/>
+    </row>
+    <row r="1408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1408" s="3"/>
+    </row>
+    <row r="1409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1409" s="3"/>
+    </row>
+    <row r="1410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1410" s="3"/>
+    </row>
+    <row r="1411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1411" s="3"/>
+    </row>
+    <row r="1412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1412" s="3"/>
+    </row>
+    <row r="1413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1413" s="3"/>
+    </row>
+    <row r="1414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1414" s="3"/>
+    </row>
+    <row r="1415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1415" s="3"/>
+    </row>
+    <row r="1416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1416" s="3"/>
+    </row>
+    <row r="1417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1417" s="3"/>
+    </row>
+    <row r="1418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1418" s="3"/>
+    </row>
+    <row r="1419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1419" s="3"/>
+    </row>
+    <row r="1420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1420" s="3"/>
+    </row>
+    <row r="1421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1421" s="3"/>
+    </row>
+    <row r="1422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1422" s="3"/>
+    </row>
+    <row r="1423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1423" s="3"/>
+    </row>
+    <row r="1424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1424" s="3"/>
+    </row>
+    <row r="1425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1425" s="3"/>
+    </row>
+    <row r="1426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1426" s="3"/>
+    </row>
+    <row r="1427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1427" s="3"/>
+    </row>
+    <row r="1428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1428" s="3"/>
+    </row>
+    <row r="1429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1429" s="3"/>
+    </row>
+    <row r="1430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1430" s="3"/>
+    </row>
+    <row r="1431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1431" s="3"/>
+    </row>
+    <row r="1432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1432" s="3"/>
+    </row>
+    <row r="1433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1433" s="3"/>
+    </row>
+    <row r="1434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1434" s="3"/>
+    </row>
+    <row r="1435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1435" s="3"/>
+    </row>
+    <row r="1436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1436" s="3"/>
+    </row>
+    <row r="1437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1437" s="3"/>
+    </row>
+    <row r="1438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1438" s="3"/>
+    </row>
+    <row r="1439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1439" s="3"/>
+    </row>
+    <row r="1440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1440" s="3"/>
+    </row>
+    <row r="1441" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1441" s="3"/>
+    </row>
+    <row r="1442" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1442" s="3"/>
+    </row>
+    <row r="1443" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1443" s="3"/>
+    </row>
+    <row r="1444" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1444" s="3"/>
+    </row>
+    <row r="1445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1445" s="3"/>
+    </row>
+    <row r="1446" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1446" s="3"/>
+    </row>
+    <row r="1447" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1447" s="3"/>
+    </row>
+    <row r="1448" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1448" s="3"/>
+    </row>
+    <row r="1449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1449" s="3"/>
+    </row>
+    <row r="1450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1450" s="3"/>
+    </row>
+    <row r="1451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1451" s="3"/>
+    </row>
+    <row r="1452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1452" s="3"/>
+    </row>
+    <row r="1453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1453" s="3"/>
+    </row>
+    <row r="1454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1454" s="3"/>
+    </row>
+    <row r="1455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1455" s="3"/>
+    </row>
+    <row r="1456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1456" s="3"/>
+    </row>
+    <row r="1457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1457" s="3"/>
+    </row>
+    <row r="1458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1458" s="3"/>
+    </row>
+    <row r="1459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1459" s="3"/>
+    </row>
+    <row r="1460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1460" s="3"/>
+    </row>
+    <row r="1461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1461" s="3"/>
+    </row>
+    <row r="1462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1462" s="3"/>
+    </row>
+    <row r="1463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1463" s="3"/>
+    </row>
+    <row r="1464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1464" s="3"/>
+    </row>
+    <row r="1465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1465" s="3"/>
+    </row>
+    <row r="1466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1466" s="3"/>
+    </row>
+    <row r="1467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1467" s="3"/>
+    </row>
+    <row r="1468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1468" s="3"/>
+    </row>
+    <row r="1469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1469" s="3"/>
+    </row>
+    <row r="1470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1470" s="3"/>
+    </row>
+    <row r="1471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1471" s="3"/>
+    </row>
+    <row r="1472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1472" s="3"/>
+    </row>
+    <row r="1473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1473" s="3"/>
+    </row>
+    <row r="1474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1474" s="3"/>
+    </row>
+    <row r="1475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1475" s="3"/>
+    </row>
+    <row r="1476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1476" s="3"/>
+    </row>
+    <row r="1477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1477" s="3"/>
+    </row>
+    <row r="1478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1478" s="3"/>
+    </row>
+    <row r="1479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1479" s="3"/>
+    </row>
+    <row r="1480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1480" s="3"/>
+    </row>
+    <row r="1481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1481" s="3"/>
+    </row>
+    <row r="1482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1482" s="3"/>
+    </row>
+    <row r="1483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1483" s="3"/>
+    </row>
+    <row r="1484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1484" s="3"/>
+    </row>
+    <row r="1485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1485" s="3"/>
+    </row>
+    <row r="1486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1486" s="3"/>
+    </row>
+    <row r="1487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1487" s="3"/>
+    </row>
+    <row r="1488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1488" s="3"/>
+    </row>
+    <row r="1489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1489" s="3"/>
+    </row>
+    <row r="1490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1490" s="3"/>
+    </row>
+    <row r="1491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1491" s="3"/>
+    </row>
+    <row r="1492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1492" s="3"/>
+    </row>
+    <row r="1493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1493" s="3"/>
+    </row>
+    <row r="1494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1494" s="3"/>
+    </row>
+    <row r="1495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1495" s="3"/>
+    </row>
+    <row r="1496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1496" s="3"/>
+    </row>
+    <row r="1497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1497" s="3"/>
+    </row>
+    <row r="1498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1498" s="3"/>
+    </row>
+    <row r="1499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1499" s="3"/>
+    </row>
+    <row r="1500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1500" s="3"/>
+    </row>
+    <row r="1501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1501" s="3"/>
+    </row>
+    <row r="1502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1502" s="3"/>
+    </row>
+    <row r="1503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1503" s="3"/>
+    </row>
+    <row r="1504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1504" s="3"/>
+    </row>
+    <row r="1505" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1505" s="3"/>
+    </row>
+    <row r="1506" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1506" s="3"/>
+    </row>
+    <row r="1507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1507" s="3"/>
+    </row>
+    <row r="1508" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1508" s="3"/>
+    </row>
+    <row r="1509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1509" s="3"/>
+    </row>
+    <row r="1510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1510" s="3"/>
+    </row>
+    <row r="1511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1511" s="3"/>
+    </row>
+    <row r="1512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1512" s="3"/>
+    </row>
+    <row r="1513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1513" s="3"/>
+    </row>
+    <row r="1514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1514" s="3"/>
+    </row>
+    <row r="1515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1515" s="3"/>
+    </row>
+    <row r="1516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1516" s="3"/>
+    </row>
+    <row r="1517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1517" s="3"/>
+    </row>
+    <row r="1518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1518" s="3"/>
+    </row>
+    <row r="1519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1519" s="3"/>
+    </row>
+    <row r="1520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1520" s="3"/>
+    </row>
+    <row r="1521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1521" s="3"/>
+    </row>
+    <row r="1522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1522" s="3"/>
+    </row>
+    <row r="1523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1523" s="3"/>
+    </row>
+    <row r="1524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1524" s="3"/>
+    </row>
+    <row r="1525" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1525" s="3"/>
+    </row>
+    <row r="1526" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1526" s="3"/>
+    </row>
+    <row r="1527" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1527" s="3"/>
+    </row>
+    <row r="1528" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1528" s="3"/>
+    </row>
+    <row r="1529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1529" s="3"/>
+    </row>
+    <row r="1530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1530" s="3"/>
+    </row>
+    <row r="1531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1531" s="3"/>
+    </row>
+    <row r="1532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1532" s="3"/>
+    </row>
+    <row r="1533" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1533" s="3"/>
+    </row>
+    <row r="1534" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1534" s="3"/>
+    </row>
+    <row r="1535" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1535" s="3"/>
+    </row>
+    <row r="1536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1536" s="3"/>
+    </row>
+    <row r="1537" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1537" s="3"/>
+    </row>
+    <row r="1538" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1538" s="3"/>
+    </row>
+    <row r="1539" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1539" s="3"/>
+    </row>
+    <row r="1540" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1540" s="3"/>
+    </row>
+    <row r="1541" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1541" s="3"/>
+    </row>
+    <row r="1542" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1542" s="3"/>
+    </row>
+    <row r="1543" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1543" s="3"/>
+    </row>
+    <row r="1544" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1544" s="3"/>
+    </row>
+    <row r="1545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1545" s="3"/>
+    </row>
+    <row r="1546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1546" s="3"/>
+    </row>
+    <row r="1547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1547" s="3"/>
+    </row>
+    <row r="1548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1548" s="3"/>
+    </row>
+    <row r="1549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1549" s="3"/>
+    </row>
+    <row r="1550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1550" s="3"/>
+    </row>
+    <row r="1551" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1551" s="3"/>
+    </row>
+    <row r="1552" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1552" s="3"/>
+    </row>
+    <row r="1553" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1553" s="3"/>
+    </row>
+    <row r="1554" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1554" s="3"/>
+    </row>
+    <row r="1555" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1555" s="3"/>
+    </row>
+    <row r="1556" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1556" s="3"/>
+    </row>
+    <row r="1557" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1557" s="3"/>
+    </row>
+    <row r="1558" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1558" s="3"/>
+    </row>
+    <row r="1559" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1559" s="3"/>
+    </row>
+    <row r="1560" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1560" s="3"/>
+    </row>
+    <row r="1561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1561" s="3"/>
+    </row>
+    <row r="1562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1562" s="3"/>
+    </row>
+    <row r="1563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1563" s="3"/>
+    </row>
+    <row r="1564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1564" s="3"/>
+    </row>
+    <row r="1565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1565" s="3"/>
+    </row>
+    <row r="1566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1566" s="3"/>
+    </row>
+    <row r="1567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1567" s="3"/>
+    </row>
+    <row r="1568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1568" s="3"/>
+    </row>
+    <row r="1569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1569" s="3"/>
+    </row>
+    <row r="1570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1570" s="3"/>
+    </row>
+    <row r="1571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1571" s="3"/>
+    </row>
+    <row r="1572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1572" s="3"/>
+    </row>
+    <row r="1573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1573" s="3"/>
+    </row>
+    <row r="1574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1574" s="3"/>
+    </row>
+    <row r="1575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1575" s="3"/>
+    </row>
+    <row r="1576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1576" s="3"/>
+    </row>
+    <row r="1577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1577" s="3"/>
+    </row>
+    <row r="1578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1578" s="3"/>
+    </row>
+    <row r="1579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1579" s="3"/>
+    </row>
+    <row r="1580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1580" s="3"/>
+    </row>
+    <row r="1581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1581" s="3"/>
+    </row>
+    <row r="1582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1582" s="3"/>
+    </row>
+    <row r="1583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1583" s="3"/>
+    </row>
+    <row r="1584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1584" s="3"/>
+    </row>
+    <row r="1585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1585" s="3"/>
+    </row>
+    <row r="1586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1586" s="3"/>
+    </row>
+    <row r="1587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1587" s="3"/>
+    </row>
+    <row r="1588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1588" s="3"/>
+    </row>
+    <row r="1589" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1589" s="3"/>
+    </row>
+    <row r="1590" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1590" s="3"/>
+    </row>
+    <row r="1591" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1591" s="3"/>
+    </row>
+    <row r="1592" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1592" s="3"/>
+    </row>
+    <row r="1593" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1593" s="3"/>
+    </row>
+    <row r="1594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1594" s="3"/>
+    </row>
+    <row r="1595" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1595" s="3"/>
+    </row>
+    <row r="1596" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1596" s="3"/>
+    </row>
+    <row r="1597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1597" s="3"/>
+    </row>
+    <row r="1598" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1598" s="3"/>
+    </row>
+    <row r="1599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1599" s="3"/>
+    </row>
+    <row r="1600" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1600" s="3"/>
+    </row>
+    <row r="1601" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1601" s="3"/>
+    </row>
+    <row r="1602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1602" s="3"/>
+    </row>
+    <row r="1603" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1603" s="3"/>
+    </row>
+    <row r="1604" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1604" s="3"/>
+    </row>
+    <row r="1605" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1605" s="3"/>
+    </row>
+    <row r="1606" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1606" s="3"/>
+    </row>
+    <row r="1607" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1607" s="3"/>
+    </row>
+    <row r="1608" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1608" s="3"/>
+    </row>
+    <row r="1609" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1609" s="3"/>
+    </row>
+    <row r="1610" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1610" s="3"/>
+    </row>
+    <row r="1611" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1611" s="3"/>
+    </row>
+    <row r="1612" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1612" s="3"/>
+    </row>
+    <row r="1613" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1613" s="3"/>
+    </row>
+    <row r="1614" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1614" s="3"/>
+    </row>
+    <row r="1615" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1615" s="3"/>
+    </row>
+    <row r="1616" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1616" s="3"/>
+    </row>
+    <row r="1617" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1617" s="3"/>
+    </row>
+    <row r="1618" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1618" s="3"/>
+    </row>
+    <row r="1619" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1619" s="3"/>
+    </row>
+    <row r="1620" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1620" s="3"/>
+    </row>
+    <row r="1621" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1621" s="3"/>
+    </row>
+    <row r="1622" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1622" s="3"/>
+    </row>
+    <row r="1623" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1623" s="3"/>
+    </row>
+    <row r="1624" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1624" s="3"/>
+    </row>
+    <row r="1625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1625" s="3"/>
+    </row>
+    <row r="1626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1626" s="3"/>
+    </row>
+    <row r="1627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1627" s="3"/>
+    </row>
+    <row r="1628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1628" s="3"/>
+    </row>
+    <row r="1629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1629" s="3"/>
+    </row>
+    <row r="1630" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1630" s="3"/>
+    </row>
+    <row r="1631" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1631" s="3"/>
+    </row>
+    <row r="1632" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1632" s="3"/>
+    </row>
+    <row r="1633" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1633" s="3"/>
+    </row>
+    <row r="1634" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1634" s="3"/>
+    </row>
+    <row r="1635" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1635" s="3"/>
+    </row>
+    <row r="1636" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1636" s="3"/>
+    </row>
+    <row r="1637" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1637" s="3"/>
+    </row>
+    <row r="1638" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1638" s="3"/>
+    </row>
+    <row r="1639" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1639" s="3"/>
+    </row>
+    <row r="1640" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1640" s="3"/>
+    </row>
+    <row r="1641" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1641" s="3"/>
+    </row>
+    <row r="1642" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1642" s="3"/>
+    </row>
+    <row r="1643" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1643" s="3"/>
+    </row>
+    <row r="1644" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1644" s="3"/>
+    </row>
+    <row r="1645" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1645" s="3"/>
+    </row>
+    <row r="1646" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1646" s="3"/>
+    </row>
+    <row r="1647" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1647" s="3"/>
+    </row>
+    <row r="1648" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1648" s="3"/>
+    </row>
+    <row r="1649" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1649" s="3"/>
+    </row>
+    <row r="1650" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1650" s="3"/>
+    </row>
+    <row r="1651" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1651" s="3"/>
+    </row>
+    <row r="1652" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1652" s="3"/>
+    </row>
+    <row r="1653" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1653" s="3"/>
+    </row>
+    <row r="1654" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1654" s="3"/>
+    </row>
+    <row r="1655" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1655" s="3"/>
+    </row>
+    <row r="1656" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1656" s="3"/>
+    </row>
+    <row r="1657" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1657" s="3"/>
+    </row>
+    <row r="1658" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1658" s="3"/>
+    </row>
+    <row r="1659" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1659" s="3"/>
+    </row>
+    <row r="1660" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1660" s="3"/>
+    </row>
+    <row r="1661" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1661" s="3"/>
+    </row>
+    <row r="1662" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1662" s="3"/>
+    </row>
+    <row r="1663" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1663" s="3"/>
+    </row>
+    <row r="1664" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1664" s="3"/>
+    </row>
+    <row r="1665" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1665" s="3"/>
+    </row>
+    <row r="1666" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1666" s="3"/>
+    </row>
+    <row r="1667" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1667" s="3"/>
+    </row>
+    <row r="1668" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1668" s="3"/>
+    </row>
+    <row r="1669" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1669" s="3"/>
+    </row>
+    <row r="1670" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1670" s="3"/>
+    </row>
+    <row r="1671" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1671" s="3"/>
+    </row>
+    <row r="1672" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1672" s="3"/>
+    </row>
+    <row r="1673" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1673" s="3"/>
+    </row>
+    <row r="1674" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1674" s="3"/>
+    </row>
+    <row r="1675" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1675" s="3"/>
+    </row>
+    <row r="1676" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1676" s="3"/>
+    </row>
+    <row r="1677" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1677" s="3"/>
+    </row>
+    <row r="1678" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1678" s="3"/>
+    </row>
+    <row r="1679" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1679" s="3"/>
+    </row>
+    <row r="1680" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1680" s="3"/>
+    </row>
+    <row r="1681" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1681" s="3"/>
+    </row>
+    <row r="1682" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1682" s="3"/>
+    </row>
+    <row r="1683" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1683" s="3"/>
+    </row>
+    <row r="1684" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1684" s="3"/>
+    </row>
+    <row r="1685" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1685" s="3"/>
+    </row>
+    <row r="1686" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1686" s="3"/>
+    </row>
+    <row r="1687" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1687" s="3"/>
+    </row>
+    <row r="1688" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1688" s="3"/>
+    </row>
+    <row r="1689" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1689" s="3"/>
+    </row>
+    <row r="1690" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1690" s="3"/>
+    </row>
+    <row r="1691" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1691" s="3"/>
+    </row>
+    <row r="1692" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1692" s="3"/>
+    </row>
+    <row r="1693" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1693" s="3"/>
+    </row>
+    <row r="1694" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1694" s="3"/>
+    </row>
+    <row r="1695" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1695" s="3"/>
+    </row>
+    <row r="1696" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1696" s="3"/>
+    </row>
+    <row r="1697" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1697" s="3"/>
+    </row>
+    <row r="1698" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1698" s="3"/>
+    </row>
+    <row r="1699" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1699" s="3"/>
+    </row>
+    <row r="1700" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1700" s="3"/>
+    </row>
+    <row r="1701" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1701" s="3"/>
+    </row>
+    <row r="1702" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1702" s="3"/>
+    </row>
+    <row r="1703" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1703" s="3"/>
+    </row>
+    <row r="1704" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1704" s="3"/>
+    </row>
+    <row r="1705" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1705" s="3"/>
+    </row>
+    <row r="1706" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1706" s="3"/>
+    </row>
+    <row r="1707" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1707" s="3"/>
+    </row>
+    <row r="1708" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1708" s="3"/>
+    </row>
+    <row r="1709" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1709" s="3"/>
+    </row>
+    <row r="1710" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1710" s="3"/>
+    </row>
+    <row r="1711" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1711" s="3"/>
+    </row>
+    <row r="1712" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1712" s="3"/>
+    </row>
+    <row r="1713" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1713" s="3"/>
+    </row>
+    <row r="1714" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1714" s="3"/>
+    </row>
+    <row r="1715" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1715" s="3"/>
+    </row>
+    <row r="1716" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1716" s="3"/>
+    </row>
+    <row r="1717" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1717" s="3"/>
+    </row>
+    <row r="1718" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1718" s="3"/>
+    </row>
+    <row r="1719" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1719" s="3"/>
+    </row>
+    <row r="1720" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1720" s="3"/>
+    </row>
+    <row r="1721" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1721" s="3"/>
+    </row>
+    <row r="1722" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1722" s="3"/>
+    </row>
+    <row r="1723" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1723" s="3"/>
+    </row>
+    <row r="1724" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1724" s="3"/>
+    </row>
+    <row r="1725" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1725" s="3"/>
+    </row>
+    <row r="1726" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1726" s="3"/>
+    </row>
+    <row r="1727" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1727" s="3"/>
+    </row>
+    <row r="1728" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1728" s="3"/>
+    </row>
+    <row r="1729" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1729" s="3"/>
+    </row>
+    <row r="1730" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1730" s="3"/>
+    </row>
+    <row r="1731" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1731" s="3"/>
+    </row>
+    <row r="1732" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1732" s="3"/>
+    </row>
+    <row r="1733" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1733" s="3"/>
+    </row>
+    <row r="1734" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1734" s="3"/>
+    </row>
+    <row r="1735" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1735" s="3"/>
+    </row>
+    <row r="1736" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1736" s="3"/>
+    </row>
+    <row r="1737" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1737" s="3"/>
+    </row>
+    <row r="1738" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1738" s="3"/>
+    </row>
+    <row r="1739" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1739" s="3"/>
+    </row>
+    <row r="1740" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1740" s="3"/>
+    </row>
+    <row r="1741" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1741" s="3"/>
+    </row>
+    <row r="1742" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1742" s="3"/>
+    </row>
+    <row r="1743" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1743" s="3"/>
+    </row>
+    <row r="1744" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1744" s="3"/>
+    </row>
+    <row r="1745" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1745" s="3"/>
+    </row>
+    <row r="1746" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1746" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A389:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="37" priority="100"/>
+  <conditionalFormatting sqref="A459:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="47" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A389:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="97"/>
+  <conditionalFormatting sqref="A459:A1048576">
+    <cfRule type="duplicateValues" dxfId="46" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:A251">
-    <cfRule type="duplicateValues" dxfId="35" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:A251">
-    <cfRule type="duplicateValues" dxfId="34" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A225:A251 A1 A389:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="68"/>
+  <conditionalFormatting sqref="A225:A251 A1 A459:A1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:A224">
-    <cfRule type="duplicateValues" dxfId="32" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:A224">
-    <cfRule type="duplicateValues" dxfId="31" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A143">
-    <cfRule type="duplicateValues" dxfId="30" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A172">
-    <cfRule type="duplicateValues" dxfId="29" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A199">
-    <cfRule type="duplicateValues" dxfId="28" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A199">
-    <cfRule type="duplicateValues" dxfId="27" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A389:A1048576 A1:A251">
-    <cfRule type="duplicateValues" dxfId="26" priority="50"/>
+  <conditionalFormatting sqref="A459:A1048576 A1:A251">
+    <cfRule type="duplicateValues" dxfId="36" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252:A299">
-    <cfRule type="duplicateValues" dxfId="25" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252:A299">
-    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300:A355">
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300:A355">
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356:A387">
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356:A387">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A388">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13 C51:C54 C62 C59 C48 C44 C37 C21 C19 C10 C8 C3 C68:C72">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+  <conditionalFormatting sqref="C12:C13 C51:C54 C62 C59 C48 C44 C37 C21 C19 C3 C68:C72 C8:C10">
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13 B51:B54 B62 B59 B48 B44 B37 B21 B19 B10 B8 B3 B68:B72">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+  <conditionalFormatting sqref="B12:B13 B51:B54 B62 B59 B48 B44 B37 B21 B19 B3 B68:B72 B8:B10">
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142 C109 C94 C91 C87 C78 C76 C73">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C150 C159 C172 C155">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142 B109 B94 B91 B87 B78 B76 B73">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149:B150 B159 B172 B155">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182:C183 C186 C179 C177 C175 C173">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B183 B186 B179 B177 B175 B173">
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252:B299">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258:C259 C297 C276 C271 C255">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B300:B355">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C336">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B356:B387">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C356:C357 E361 C362:C387">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B388">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C388">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D361">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B415">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A389:A432">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A389:A432">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C390 E414:E415 C395:C412 C414:C432 E432">
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B390 B414 D414:D415 B395:B412 B416:B432 D432">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A433:A458">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A433:A458">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C434 C439:C441 C443:C445 E451 B446:C446 E449 E455:E458 C447:C458">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B434 B439:B441 B443:B445 D451 D449 D455:D458 B447:B458">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
